--- a/Cinematic Strings/Cinematic Studio Strings/ExpressionMap.xlsx
+++ b/Cinematic Strings/Cinematic Studio Strings/ExpressionMap.xlsx
@@ -30,6 +30,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -52,6 +67,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,6 +110,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -102,6 +147,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,6 +190,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -152,6 +227,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,6 +270,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -196,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="185">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -758,13 +863,37 @@
   </si>
   <si>
     <t>Measured Tremolo</t>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>CSS Violins</t>
+  </si>
+  <si>
+    <t>CSS Basses</t>
+  </si>
+  <si>
+    <t>CSS Cellos</t>
+  </si>
+  <si>
+    <t>CSS Full Ensemble</t>
+  </si>
+  <si>
+    <t>CSS Lite Ensemble</t>
+  </si>
+  <si>
+    <t>CSS Violas</t>
+  </si>
+  <si>
+    <t>CSS Keyswich CC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,8 +940,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,6 +997,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -904,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +1109,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,11 +1417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1287,136 +1435,91 @@
     <col min="9" max="9" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="6">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="6">
-        <v>120</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6">
         <v>120</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>78</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1431,19 +1534,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1458,71 +1561,79 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6">
         <v>120</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>48</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6">
         <v>120</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6">
         <v>120</v>
@@ -1533,19 +1644,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6">
         <v>120</v>
@@ -1556,19 +1667,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="6">
         <v>120</v>
@@ -1579,67 +1690,59 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F13" s="6">
         <v>120</v>
       </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>127</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6">
         <v>120</v>
       </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>64</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -1654,34 +1757,62 @@
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>64</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="6">
+        <v>120</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
@@ -3179,17 +3310,46 @@
       <c r="H132" s="6"/>
       <c r="I132" s="3"/>
     </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="3"/>
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="3"/>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B134">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G2:H132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F2:F132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F4:F134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3204,13 +3364,13 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E132</xm:sqref>
+          <xm:sqref>E4:E134</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D132</xm:sqref>
+          <xm:sqref>D4:D134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3220,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -3238,136 +3398,91 @@
     <col min="9" max="9" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="6">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="6">
-        <v>120</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6">
         <v>120</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>78</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -3382,19 +3497,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -3409,71 +3524,79 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6">
         <v>120</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>48</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6">
         <v>120</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6">
         <v>120</v>
@@ -3484,19 +3607,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="6">
         <v>120</v>
@@ -3507,64 +3630,60 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F12" s="6">
         <v>120</v>
       </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>127</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="6">
         <v>120</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="6">
-        <v>64</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
@@ -3578,21 +3697,35 @@
         <v>1</v>
       </c>
       <c r="H14" s="6">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="6">
+        <v>120</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>64</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
@@ -3601,11 +3734,21 @@
         <v>0</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
@@ -5103,18 +5246,47 @@
       <c r="H131" s="6"/>
       <c r="I131" s="3"/>
     </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="3"/>
+      <c r="B132" s="6">
+        <v>0</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="3"/>
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F2:F131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F4:F133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G2:H131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B133">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5128,13 +5300,13 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D131</xm:sqref>
+          <xm:sqref>D4:D133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E131</xm:sqref>
+          <xm:sqref>E4:E133</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5144,10 +5316,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5162,136 +5334,91 @@
     <col min="9" max="9" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="6">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="6">
-        <v>120</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6">
         <v>120</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>78</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -5306,19 +5433,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -5333,71 +5460,79 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6">
         <v>120</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>48</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6">
         <v>120</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6">
         <v>120</v>
@@ -5408,19 +5543,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6">
         <v>120</v>
@@ -5431,19 +5566,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="6">
         <v>120</v>
@@ -5454,67 +5589,59 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F13" s="6">
         <v>120</v>
       </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>127</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6">
         <v>120</v>
       </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>64</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -5529,34 +5656,62 @@
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>64</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="6">
+        <v>120</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
@@ -7054,18 +7209,47 @@
       <c r="H132" s="6"/>
       <c r="I132" s="3"/>
     </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="3"/>
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="3"/>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F2:F132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F4:F134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G2:H132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B134">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7079,13 +7263,13 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D132</xm:sqref>
+          <xm:sqref>D4:D134</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E132</xm:sqref>
+          <xm:sqref>E4:E134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7095,10 +7279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7113,136 +7297,91 @@
     <col min="9" max="9" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="6">
-        <v>120</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="6">
         <v>120</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>78</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -7257,19 +7396,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -7284,71 +7423,79 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6">
         <v>120</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>48</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6">
         <v>120</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6">
         <v>120</v>
@@ -7359,19 +7506,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6">
         <v>120</v>
@@ -7382,19 +7529,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="6">
         <v>120</v>
@@ -7405,67 +7552,59 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F13" s="6">
         <v>120</v>
       </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>127</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="6">
         <v>120</v>
       </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>64</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -7480,34 +7619,62 @@
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="C16" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="6">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>64</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="6">
+        <v>120</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
@@ -9005,17 +9172,46 @@
       <c r="H132" s="6"/>
       <c r="I132" s="3"/>
     </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="3"/>
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="3"/>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B134">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G2:H132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F2:F132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F4:F134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -9030,13 +9226,13 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E132</xm:sqref>
+          <xm:sqref>E4:E134</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D132</xm:sqref>
+          <xm:sqref>D4:D134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9046,10 +9242,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -9064,105 +9260,68 @@
     <col min="9" max="9" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="6">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -9178,27 +9337,47 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6">
+        <v>120</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="6">
+        <v>120</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
@@ -10711,18 +10890,47 @@
       <c r="H123" s="6"/>
       <c r="I123" s="3"/>
     </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="3"/>
+      <c r="B124" s="6">
+        <v>0</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="3"/>
+      <c r="B125" s="6">
+        <v>0</v>
+      </c>
+      <c r="C125" s="19"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F2:F123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F4:F125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G2:H123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B125">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10736,13 +10944,13 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D123</xm:sqref>
+          <xm:sqref>D4:D125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E123</xm:sqref>
+          <xm:sqref>E4:E125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10752,10 +10960,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -10770,136 +10978,91 @@
     <col min="9" max="9" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="6">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="6">
-        <v>120</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6">
         <v>120</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>78</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -10914,19 +11077,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -10941,71 +11104,79 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6">
         <v>120</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>48</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6">
         <v>120</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6">
         <v>120</v>
@@ -11016,19 +11187,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6">
         <v>120</v>
@@ -11039,19 +11210,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="6">
         <v>120</v>
@@ -11062,67 +11233,59 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F13" s="6">
         <v>120</v>
       </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>127</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6">
         <v>120</v>
       </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>64</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -11137,34 +11300,62 @@
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>64</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="6">
+        <v>120</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
@@ -12662,18 +12853,47 @@
       <c r="H132" s="6"/>
       <c r="I132" s="3"/>
     </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="3"/>
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="3"/>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F2:F132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F4:F134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G2:H132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B134">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12687,13 +12907,13 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D132</xm:sqref>
+          <xm:sqref>D4:D134</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E132</xm:sqref>
+          <xm:sqref>E4:E134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12703,10 +12923,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -12721,105 +12941,68 @@
     <col min="9" max="9" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
-        <v>58</v>
-      </c>
-      <c r="H3" s="6">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <v>58</v>
-      </c>
-      <c r="H4" s="6">
-        <v>10</v>
-      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -12830,19 +13013,19 @@
         <v>58</v>
       </c>
       <c r="H5" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -12853,19 +13036,19 @@
         <v>58</v>
       </c>
       <c r="H6" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -12876,19 +13059,19 @@
         <v>58</v>
       </c>
       <c r="H7" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -12899,19 +13082,19 @@
         <v>58</v>
       </c>
       <c r="H8" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -12922,19 +13105,19 @@
         <v>58</v>
       </c>
       <c r="H9" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -12945,19 +13128,19 @@
         <v>58</v>
       </c>
       <c r="H10" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -12968,19 +13151,19 @@
         <v>58</v>
       </c>
       <c r="H11" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -12991,19 +13174,19 @@
         <v>58</v>
       </c>
       <c r="H12" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -13014,19 +13197,19 @@
         <v>58</v>
       </c>
       <c r="H13" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -13037,19 +13220,19 @@
         <v>58</v>
       </c>
       <c r="H14" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -13060,34 +13243,54 @@
         <v>58</v>
       </c>
       <c r="H15" s="6">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="6">
+        <v>58</v>
+      </c>
+      <c r="H16" s="6">
+        <v>60</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="6">
+        <v>58</v>
+      </c>
+      <c r="H17" s="6">
+        <v>65</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
@@ -14585,17 +14788,46 @@
       <c r="H132" s="6"/>
       <c r="I132" s="3"/>
     </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="3"/>
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="3"/>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B134">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G2:H132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="G4:H134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F2:F132">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="F4:F134">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -14610,13 +14842,13 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E132</xm:sqref>
+          <xm:sqref>E4:E134</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D132</xm:sqref>
+          <xm:sqref>D4:D134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
